--- a/作业需求.xlsx
+++ b/作业需求.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lewis/2018SEP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\javaProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D808CF4F-DF3D-6142-B865-590985CF3F0B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="14860" windowHeight="7940" tabRatio="538" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="14865" windowHeight="7935" tabRatio="538" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="课程要求" sheetId="5" r:id="rId1"/>
@@ -150,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缺省进入查看作业信息界面（本小组的作业信息），给出已经提交的作业信息；选择提交新作业，并上载一个作业文件（任意格式的文件，不需要在线打开浏览），作业如果有多个文档可以上载多次；附加需求，一次上载多个文件。上载完成后刷新作业信息列表。上载不成功则需要提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UC35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,12 +245,6 @@
   </si>
   <si>
     <t>作业3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具有三种作业查询方式，1：全部查询，2：按输入条件查询（多个条件组合）
-1、全部查询：缺省方式，以最近作业提交时间自顶向下进行排序并以列表的方式显示作业信息；作业信息有：作业提交时间，小组名称或编号，作业名称（具有直接打开或者下载打开的链接），提交人姓名，成绩（百分制，由助教或者老师给出），本次作业的总成绩（根据作业设置成绩的比例计算得出），批改说明，学生意见；
-2、按输入条件查询：1）作业名称；2）时间；3）小组编号；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -562,6 +551,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>查看学生名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>个人成绩由小组成绩和个人评分综合而成，小组成绩由各次作业成绩综合得到，个人评分由组长根据组员的表现和贡献给组员评分，比如小组成绩为90，个人评分为95（按百分制）则个人最后总成绩为=（90*95/100）=85.5；
 该功能是在所有作业给定成绩后，根据学生名单（或按班级）生成最终的学生成绩单；
 成绩单信息除了学生基本信息外（学生名单信息）还需要按照作业编号（作业1，作业2...）给出的各次小组作业成绩以及组员评分及最后总成绩；
@@ -569,15 +562,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看学生名单</t>
+    <t>缺省进入查看作业信息界面（本小组的作业信息），给出已经提交的作业信息；选择提交新作业，并上载一个作业文件（任意格式的文件，不需要在线打开浏览），作业如果有多个文档可以上载多次；附加需求，一次上载多个文件。上载完成后刷新作业信息列表。上载不成功则需要提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有三种作业查询方式，1：全部查询，2：按输入条件查询（多个条件组合）
+1、全部查询：缺省方式，以最近作业提交时间自顶向下进行排序并以列表的方式显示作业信息；作业信息有：作业提交时间，小组名称或编号，作业名称（具有直接打开或者下载打开的链接），提交人姓名，成绩（百分制，由助教或者老师给出），本次作业的总成绩（根据作业设置成绩的比例计算得出），批改说明，学生意见；
+2、按输入条件查询：1）作业名称；2）时间；3）小组编号；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,23 +923,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -976,23 +958,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1168,21 +1133,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1197,7 +1162,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1212,7 +1177,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:13" ht="79.5" customHeight="1">
+    <row r="4" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1227,9 +1192,9 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1244,7 +1209,7 @@
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1259,7 +1224,7 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1274,9 +1239,9 @@
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1291,7 +1256,7 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1306,7 +1271,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:13" ht="33" customHeight="1">
+    <row r="12" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1321,9 +1286,9 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -1338,7 +1303,7 @@
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1353,7 +1318,7 @@
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
     </row>
-    <row r="16" spans="1:13" ht="147.75" customHeight="1">
+    <row r="16" spans="1:13" ht="147.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -1368,9 +1333,9 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -1385,7 +1350,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -1400,7 +1365,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" ht="40.5" customHeight="1">
+    <row r="21" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -1430,24 +1395,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="11" customWidth="1"/>
     <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +1440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="64">
+    <row r="3" spans="1:4" ht="66" x14ac:dyDescent="0.15">
       <c r="A3" s="26"/>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -1484,10 +1449,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="48">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="26"/>
       <c r="B4" s="5" t="s">
         <v>14</v>
@@ -1499,7 +1464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="96">
+    <row r="5" spans="1:4" ht="99" x14ac:dyDescent="0.15">
       <c r="A5" s="26"/>
       <c r="B5" s="5" t="s">
         <v>15</v>
@@ -1508,10 +1473,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="128">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="132" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
         <v>16</v>
@@ -1520,10 +1485,10 @@
         <v>10</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="180.75" customHeight="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
@@ -1532,22 +1497,22 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="32">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
         <v>2</v>
       </c>
@@ -1561,7 +1526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32">
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
@@ -1570,10 +1535,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="112">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
       <c r="B11" s="5" t="s">
         <v>26</v>
@@ -1582,10 +1547,10 @@
         <v>27</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="66" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="B12" s="5" t="s">
         <v>29</v>
@@ -1594,90 +1559,90 @@
         <v>30</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="32">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="32">
+    </row>
+    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="32">
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="26"/>
       <c r="C18" s="32"/>
       <c r="D18" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="27"/>
       <c r="C19" s="33"/>
       <c r="D19" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -1699,50 +1664,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="48">
+    </row>
+    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="13">
         <v>42640</v>
@@ -1751,18 +1716,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="D3" s="13">
         <v>42654</v>
@@ -1771,18 +1736,18 @@
         <v>6</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="13">
         <v>42661</v>
@@ -1791,18 +1756,18 @@
         <v>7</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="D5" s="13">
         <v>42668</v>
@@ -1811,18 +1776,18 @@
         <v>8</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="13">
         <v>42682</v>
@@ -1831,12 +1796,12 @@
         <v>10</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="34"/>
@@ -1847,12 +1812,12 @@
         <v>13</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="34"/>
@@ -1863,16 +1828,16 @@
         <v>16</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="14">
         <v>42372</v>
@@ -1881,7 +1846,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1896,36 +1861,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="26.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.625" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O1" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>101</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -1942,15 +1907,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>102</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>104</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -1967,15 +1932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>107</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -1992,15 +1957,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -2017,15 +1982,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="41.25" customHeight="1">
+    <row r="6" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>111</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>113</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
@@ -2042,15 +2007,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>116</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
@@ -2067,15 +2032,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -2092,15 +2057,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>119</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>121</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -2135,72 +2100,72 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
